--- a/data/hotels_by_city/Dallas/Dallas_shard_560.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_560.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="198">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,471 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r479342687-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>56161</t>
+  </si>
+  <si>
+    <t>244372</t>
+  </si>
+  <si>
+    <t>479342687</t>
+  </si>
+  <si>
+    <t>04/26/2017</t>
+  </si>
+  <si>
+    <t>Horrible! Nasty and Racist</t>
+  </si>
+  <si>
+    <t>We checked in Friday night and as soon as we walked in we noticed a security guard standing there. That should have been the first sign to get the hell out. We checked in and took the elevator to the room. It smelled horrible and is very slow.. Went to the room and coukdnt beleive the bed frames. Its a metal frame with metal legs and a thin mattress. The comforter was nasty with stains and pulled it back and a rouch came from the sheets. It was already midnight and we were tired so decided to stay. At 1230 a group of people came to the room next door and was very loud, music blarring, cusing, slamming the doors repeatedly. We gave em 45 mins and they kept getting louder and finally called the front desk. They sent the security guard up and 10 mins later they syarted back up. We called the front desk 6 times that night and nothing was done! 80 percent of the people there are Black and if you aren't black then be ready to get treated like crap! The lady working the front desk with the purple hair is horrible. If your black you get service right then and there. White people stand there for 10 mins wholes she's screwing off. Worst hotel we have ever stayed at!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We checked in Friday night and as soon as we walked in we noticed a security guard standing there. That should have been the first sign to get the hell out. We checked in and took the elevator to the room. It smelled horrible and is very slow.. Went to the room and coukdnt beleive the bed frames. Its a metal frame with metal legs and a thin mattress. The comforter was nasty with stains and pulled it back and a rouch came from the sheets. It was already midnight and we were tired so decided to stay. At 1230 a group of people came to the room next door and was very loud, music blarring, cusing, slamming the doors repeatedly. We gave em 45 mins and they kept getting louder and finally called the front desk. They sent the security guard up and 10 mins later they syarted back up. We called the front desk 6 times that night and nothing was done! 80 percent of the people there are Black and if you aren't black then be ready to get treated like crap! The lady working the front desk with the purple hair is horrible. If your black you get service right then and there. White people stand there for 10 mins wholes she's screwing off. Worst hotel we have ever stayed at!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r478028526-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>478028526</t>
+  </si>
+  <si>
+    <t>04/22/2017</t>
+  </si>
+  <si>
+    <t>Really!!!</t>
+  </si>
+  <si>
+    <t>Too many people in rooms. Prostitutes and pimps. Drugs. The rooms were ok. Just basics. Wouldn't take my kid to stay there. Wouldn't stay there by myself. Did once. Never again. But, that seems to be the normal for motel 6 now.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Dallas - Lewisville, responded to this reviewResponded April 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2017</t>
+  </si>
+  <si>
+    <t>Too many people in rooms. Prostitutes and pimps. Drugs. The rooms were ok. Just basics. Wouldn't take my kid to stay there. Wouldn't stay there by myself. Did once. Never again. But, that seems to be the normal for motel 6 now.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r472929100-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>472929100</t>
+  </si>
+  <si>
+    <t>04/05/2017</t>
+  </si>
+  <si>
+    <t>44 Dollars Hotels.com</t>
+  </si>
+  <si>
+    <t>Amina and Sandra both managers went beyond the call of duty to help me. I came in early before check in was allowed and the got me into a room early so i could rest at no additional cost. Also, thr helped me another issue that i had and bent over backwards for me.  This is an affordable option, my room was clean and thr front desk was exceptional!MoreShow less</t>
+  </si>
+  <si>
+    <t>Amina and Sandra both managers went beyond the call of duty to help me. I came in early before check in was allowed and the got me into a room early so i could rest at no additional cost. Also, thr helped me another issue that i had and bent over backwards for me.  This is an affordable option, my room was clean and thr front desk was exceptional!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r422696818-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>422696818</t>
+  </si>
+  <si>
+    <t>09/26/2016</t>
+  </si>
+  <si>
+    <t>Mortified!!</t>
+  </si>
+  <si>
+    <t>I checked in to this motel after a very long night at work, I was very exhausted so I immediately crashed once I got into the room. I work nights, so I slept all day. When I awoke I flipped the light switched only to see roaches scatter across the floor. My stomach sank after realizing I slept in this room all day... and thoughts of roaches crawling on me or in my mouth crossed my mind... disgusting... i then hoped out of the bed and shook off all my clothes .. Took some pictures of the scene, and made my way to the front desk. Once there, I told them the situation and requested compensation by refund. In an unapologetic tone, they refused my request and blamed the rain for the roaches and bed bugs. ... really? Even if that was true the room should have been exterminated and cleared of any bugs before being rented out. Sorry excuse, and lack of customer support. I would still like to speak to management about this to make it right as I am a frequent guest of various Motel 6 facilities. Caylynn Owens Western Parking Management MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>I checked in to this motel after a very long night at work, I was very exhausted so I immediately crashed once I got into the room. I work nights, so I slept all day. When I awoke I flipped the light switched only to see roaches scatter across the floor. My stomach sank after realizing I slept in this room all day... and thoughts of roaches crawling on me or in my mouth crossed my mind... disgusting... i then hoped out of the bed and shook off all my clothes .. Took some pictures of the scene, and made my way to the front desk. Once there, I told them the situation and requested compensation by refund. In an unapologetic tone, they refused my request and blamed the rain for the roaches and bed bugs. ... really? Even if that was true the room should have been exterminated and cleared of any bugs before being rented out. Sorry excuse, and lack of customer support. I would still like to speak to management about this to make it right as I am a frequent guest of various Motel 6 facilities. Caylynn Owens Western Parking Management More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r398586600-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>398586600</t>
+  </si>
+  <si>
+    <t>07/28/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Just okay </t>
+  </si>
+  <si>
+    <t>The room was newly updated but the floors were not clean. The bathtub was nice but get you get out the bath tub to realize there is no hair dryer. I went to the front desk thinking I just had to check one out. Not only were they rude they had no hair dryers period. I have been traveling for 10 years and have never been to a hotel that didn't have a hair dryer in the building. Nobody travels with a dryer anymore. Frustrating to say the least! Rather than spending the $20 to buy one we upgraded to another hotel for the next night for the $20 and it was best money we have spent on the trip! Much better hotel all the way around. Apparently customer service doesn't exist at this hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>The room was newly updated but the floors were not clean. The bathtub was nice but get you get out the bath tub to realize there is no hair dryer. I went to the front desk thinking I just had to check one out. Not only were they rude they had no hair dryers period. I have been traveling for 10 years and have never been to a hotel that didn't have a hair dryer in the building. Nobody travels with a dryer anymore. Frustrating to say the least! Rather than spending the $20 to buy one we upgraded to another hotel for the next night for the $20 and it was best money we have spent on the trip! Much better hotel all the way around. Apparently customer service doesn't exist at this hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r372144948-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>372144948</t>
+  </si>
+  <si>
+    <t>05/11/2016</t>
+  </si>
+  <si>
+    <t>No frills</t>
+  </si>
+  <si>
+    <t>Stayed there 3 nights...Room was clean...No frills..coffee in the morning, no breakfast buffet but did have a microwave to heat stuff up in...The Front Staff could have been more friendly but over all a good stay and worth the money...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r365745329-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>365745329</t>
+  </si>
+  <si>
+    <t>04/20/2016</t>
+  </si>
+  <si>
+    <t>NO WAY!</t>
+  </si>
+  <si>
+    <t>We checked in and should have known right from the start that it was going to be bad!  The lobby smelled like stale smoke and we were literally feeling like we were being set up--like the staff were calling up their friends saying "We got one for you, go get 'em."  We passed a man in the hallway who was clearly high.  One look at the bed in our room and we got the heck out!  The bed was similar to what someone may get in jail.  A mattress on a metal plate.  No box spring.  I can't believe what I saw.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r319667212-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>319667212</t>
+  </si>
+  <si>
+    <t>10/17/2015</t>
+  </si>
+  <si>
+    <t>Rude staff</t>
+  </si>
+  <si>
+    <t>The night I checked in the staff were friendly and helpful. I was in town for business from another state and had no family in the area. I requested a late checkout for 12:30 since my apt ended at noon and I was driving with another person who was staying at the motel while I was at my apt. We had 1 car so he was virtually stranded, and I needed to change cloths before we got back on the road. At Noon they came and told him he had to get out of the room. I found him sitting outside waiting for me. The day staff were rude and not helpful. They would not accommodate an out of state traveler an extra 30 minutes. I had to chnsge any my cloths in the parking lot. Will not stay here again and when I relocate, I will not let my family and friends stay at this motel either. MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>6Team, Team 6 at Motel 6 Dallas - Lewisville, responded to this reviewResponded October 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded October 22, 2015</t>
+  </si>
+  <si>
+    <t>The night I checked in the staff were friendly and helpful. I was in town for business from another state and had no family in the area. I requested a late checkout for 12:30 since my apt ended at noon and I was driving with another person who was staying at the motel while I was at my apt. We had 1 car so he was virtually stranded, and I needed to change cloths before we got back on the road. At Noon they came and told him he had to get out of the room. I found him sitting outside waiting for me. The day staff were rude and not helpful. They would not accommodate an out of state traveler an extra 30 minutes. I had to chnsge any my cloths in the parking lot. Will not stay here again and when I relocate, I will not let my family and friends stay at this motel either. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r306939509-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>306939509</t>
+  </si>
+  <si>
+    <t>09/04/2015</t>
+  </si>
+  <si>
+    <t>That's just nasty!!!!</t>
+  </si>
+  <si>
+    <t>Attempted to stay here for the night.  The lobby smells like stale smoke.  The elevator had sunflower seeds and other trash in it.  The hallway on the second floor had trash all over it.  Worst of all, the room (214) had what looked to be either BED BUGS or TICKS crawling all over the beds.  We didn't stay needless to say.  Miguel, who worked the desk, was apologetic and nice, doesn't make up for the filth in this place.  And now I have to wait for a refund...MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Dallas - Lewisville, responded to this reviewResponded September 8, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2015</t>
+  </si>
+  <si>
+    <t>Attempted to stay here for the night.  The lobby smells like stale smoke.  The elevator had sunflower seeds and other trash in it.  The hallway on the second floor had trash all over it.  Worst of all, the room (214) had what looked to be either BED BUGS or TICKS crawling all over the beds.  We didn't stay needless to say.  Miguel, who worked the desk, was apologetic and nice, doesn't make up for the filth in this place.  And now I have to wait for a refund...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r258315435-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>258315435</t>
+  </si>
+  <si>
+    <t>03/07/2015</t>
+  </si>
+  <si>
+    <t>Go elsewhere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Didn't actually stay in the hotel but I can tell you it's not a place you want to stay. From the outside its not too bad but once you step foot in the lobby you are "greeted" by unfriendly staff in a very dated and not to clean lobby. When we were there the hallway smelled strongly of marijuana. We decided not to stay based on what we saw from the few minutes we were there. The only upside is that it's a cheap stay. Somewhere around $50 a night. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r253358863-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>253358863</t>
+  </si>
+  <si>
+    <t>02/09/2015</t>
+  </si>
+  <si>
+    <t>blood on floors</t>
+  </si>
+  <si>
+    <t>There was BLOOD on the floor and no blankets unsanitary, unsafe, didn't even stay one night. they wouldn't even clean up the blood. Went to dinner came back blood still there so packed up and left!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!!</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r249813220-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>249813220</t>
+  </si>
+  <si>
+    <t>01/18/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do not recommend </t>
+  </si>
+  <si>
+    <t>One of the worst places I have ever stayed. First night security and desk clerk knocked on our door twice saying we were too loud. (My girlfriend and I were only having a friendly conversation) Second night after returning from Joe's Crab Shack we were sitting in our car smoking (as there were no smoking rooms available during our stay) and the night staff called the Lewisville police on us. We were detained for over 45 minutes while they ran warrant checks on us and searched our car for narcotics. I was frisked by the police and they took my keys because of a small pen knife on my keyring. We were finally free to leave. The officer failed to retuun my keys and I had to call police dispatch and have the officer return my keys. Then later a knock on the dock again from security telling us we were too loud. I am an OTR driver and my girlfriend a CNA at a nursing home. We will never again stay at any Motel 6. Night staff needs to be replaced. Period! MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>One of the worst places I have ever stayed. First night security and desk clerk knocked on our door twice saying we were too loud. (My girlfriend and I were only having a friendly conversation) Second night after returning from Joe's Crab Shack we were sitting in our car smoking (as there were no smoking rooms available during our stay) and the night staff called the Lewisville police on us. We were detained for over 45 minutes while they ran warrant checks on us and searched our car for narcotics. I was frisked by the police and they took my keys because of a small pen knife on my keyring. We were finally free to leave. The officer failed to retuun my keys and I had to call police dispatch and have the officer return my keys. Then later a knock on the dock again from security telling us we were too loud. I am an OTR driver and my girlfriend a CNA at a nursing home. We will never again stay at any Motel 6. Night staff needs to be replaced. Period! More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r237208388-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>237208388</t>
+  </si>
+  <si>
+    <t>10/30/2014</t>
+  </si>
+  <si>
+    <t>Bargain stay</t>
+  </si>
+  <si>
+    <t>Overall I was ok w/my stay at this motel &amp; likely would return if in area. Observed Front desk clerk never mentioning room numbers when people checking in which is good when checking in alone. He could not however not make any adjustments to my booking when error noted. Room advertised as having microwave &amp; refrigerator but none in room-checkout clerk reported I had to ask for these items at check in or when booking which was strange to me. Room &amp; bathroom clean w/exception of corners of bathroom vanity which were dusty. Bath towels were a little rough but not so you couldn't use them. Room furnishings reminded me of European adult hostels-minimalist. So if you are looking for free breakfast, hairdryer, iron/ironing board, closet w/hangers, coffee maker (coffee available at front desk) or chest of drawers, you wont find it here. I was ok w/this as I didn't need these items &amp; could get a cheap breakfast for the amount of money I saved on the room price. Heard couple of noises in evening but not consistent such that it was troublesome. Front desk had multiple video cameras of the parking lots which made me feel secure about my car.  Checkout clerk could not give me a zero receipt-she referred me to the booking agent.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>Overall I was ok w/my stay at this motel &amp; likely would return if in area. Observed Front desk clerk never mentioning room numbers when people checking in which is good when checking in alone. He could not however not make any adjustments to my booking when error noted. Room advertised as having microwave &amp; refrigerator but none in room-checkout clerk reported I had to ask for these items at check in or when booking which was strange to me. Room &amp; bathroom clean w/exception of corners of bathroom vanity which were dusty. Bath towels were a little rough but not so you couldn't use them. Room furnishings reminded me of European adult hostels-minimalist. So if you are looking for free breakfast, hairdryer, iron/ironing board, closet w/hangers, coffee maker (coffee available at front desk) or chest of drawers, you wont find it here. I was ok w/this as I didn't need these items &amp; could get a cheap breakfast for the amount of money I saved on the room price. Heard couple of noises in evening but not consistent such that it was troublesome. Front desk had multiple video cameras of the parking lots which made me feel secure about my car.  Checkout clerk could not give me a zero receipt-she referred me to the booking agent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r221983599-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>221983599</t>
+  </si>
+  <si>
+    <t>08/15/2014</t>
+  </si>
+  <si>
+    <t>Over-priced, rough crowd, wi-fi costs and no FOX News</t>
+  </si>
+  <si>
+    <t>I am generally not a fan of Motel 6's.  Unfortunately my company put me up here even though I was working way in Frisco.  I was here for 11 nights and can tell you that there was law enforcement activity at the hotel 3-4 of those nights.  They charge for wi-fi, and there is no FOX News.  Your only choice is CNN.  I mentioned it twice to the front desk and they pretty much blew me off.  There were a few nice clerks at the front desk who really try to please - they have a tough job with the crowd that stays at a place like Motel 6.  Despite the rough crowd, I can tell you that the hotel was clean, and maid service did a great job.  Do yourself a favor and spend the same money or maybe just a few more dollars and stay across the street at the La Quinta - Lewisville.  You get a ton more value and bang for your buck.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>I am generally not a fan of Motel 6's.  Unfortunately my company put me up here even though I was working way in Frisco.  I was here for 11 nights and can tell you that there was law enforcement activity at the hotel 3-4 of those nights.  They charge for wi-fi, and there is no FOX News.  Your only choice is CNN.  I mentioned it twice to the front desk and they pretty much blew me off.  There were a few nice clerks at the front desk who really try to please - they have a tough job with the crowd that stays at a place like Motel 6.  Despite the rough crowd, I can tell you that the hotel was clean, and maid service did a great job.  Do yourself a favor and spend the same money or maybe just a few more dollars and stay across the street at the La Quinta - Lewisville.  You get a ton more value and bang for your buck.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r215128241-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>215128241</t>
+  </si>
+  <si>
+    <t>07/13/2014</t>
+  </si>
+  <si>
+    <t>Clean Rooms, Great Value</t>
+  </si>
+  <si>
+    <t>This hotel is 3 floors with secure key card entry and interior corridors.  Recently remodeled, the rooms are bright, cheerful, and very European in appearance.  The hard floors were spotless and fixtures sparkled.  We felt very safe even though we were only a short distance from the freeway.  Convenient location is close to many restaurants and easy access to nearby businesses.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r182147461-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>182147461</t>
+  </si>
+  <si>
+    <t>10/23/2013</t>
+  </si>
+  <si>
+    <t>Not bad for price</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel for 5 days between moving out of house and selling it.  It was pretty good for the price I paid.  Booked in advance.  Room was clean but very basic.  I did like the vinyl floors...no dirty carpets.  Since I was there on Friday and Saturday nights it was very busy.  The other nights where a lot less congested and not so many people wandering around as the weekend was.  Bed was hard but at least you didn't fall or sink in the middle.  Overall I would stay here again.</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r176775729-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>176775729</t>
+  </si>
+  <si>
+    <t>09/11/2013</t>
+  </si>
+  <si>
+    <t>I agree with Monica M</t>
+  </si>
+  <si>
+    <t>If you don't mind spartan (no fridge, m/wave, breakfast and basic cable) and WANT safety. cleanliness, comfortable beds, great, I mean great shower, comfortable vinyl floors, NO DIRTY CARPETS or heavy brocades and consistent heating/cooling,  and LOW RATES next to HW35 and Coppell (all stores needed nearby).  then this is for you.  We travel to the area frequently and now that we've found this new looking Motel 6 it will be our "home away from home".  We bring a cooler full of food anyway, to save time and money.</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r175273681-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>175273681</t>
+  </si>
+  <si>
+    <t>09/02/2013</t>
+  </si>
+  <si>
+    <t>Should be a below negative rating</t>
+  </si>
+  <si>
+    <t>If you do not care about the smell of cigarettes, then please by all means book the hotel because you will probably like it for the price.  I get that I was paying cheap rates for a budget hotel, but I cannot and will not deal with rooms that smell like cigarettes.  The hotel assured me that they had non-smoking rooms and sure enough the sign on the door said non-smoking.  But the fact is it reeked very bad of cigarettes.  My guess is because so many hotels are smoke free, this hotel gets all the smokers and the whole building is a pack of cigarettes.  So if you hate smoking like I do, there were plenty of smoke free hotels in the area for the near the same price, so book elsewhere.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>If you do not care about the smell of cigarettes, then please by all means book the hotel because you will probably like it for the price.  I get that I was paying cheap rates for a budget hotel, but I cannot and will not deal with rooms that smell like cigarettes.  The hotel assured me that they had non-smoking rooms and sure enough the sign on the door said non-smoking.  But the fact is it reeked very bad of cigarettes.  My guess is because so many hotels are smoke free, this hotel gets all the smokers and the whole building is a pack of cigarettes.  So if you hate smoking like I do, there were plenty of smoke free hotels in the area for the near the same price, so book elsewhere.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r130705271-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>130705271</t>
+  </si>
+  <si>
+    <t>05/27/2012</t>
+  </si>
+  <si>
+    <t>Good clean room for a good price</t>
+  </si>
+  <si>
+    <t>We stayed there for a week. The room was always very clean. For a similar price you will not be able to find a good clean room. We are happy with the stay and will stay there again.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r125946274-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>125946274</t>
+  </si>
+  <si>
+    <t>03/11/2012</t>
+  </si>
+  <si>
+    <t>Would give a negative number if I could!</t>
+  </si>
+  <si>
+    <t>We stayed there last night -- HORRIBLE!!!  We actually complained this morning and got a refund in full.  I still have to talk to the GM Tim Stringer , as well as his boss!  Doors slammed ALL night long.  Could hear every single word that our neighbors said standing in the hallway outside our door, loud and clear.  Heard every person that walked past our room or walked down the hall above our room, I think.  Like the other reviewers, there is definitely NOTHING to the walls, absolutely no soundproofing at all.  Housekeeping had the nerve to knock on our door at 10:00 a.m. this morning to see if we'd left even though check-out is noon!  We had no water pressure in our sink, although the shower was fine.  We've stayed in hundreds of hotels across this country and there's only been one instance of a worse hotel experience that we've had.  NEVER EVER STAY HERE!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>We stayed there last night -- HORRIBLE!!!  We actually complained this morning and got a refund in full.  I still have to talk to the GM Tim Stringer , as well as his boss!  Doors slammed ALL night long.  Could hear every single word that our neighbors said standing in the hallway outside our door, loud and clear.  Heard every person that walked past our room or walked down the hall above our room, I think.  Like the other reviewers, there is definitely NOTHING to the walls, absolutely no soundproofing at all.  Housekeeping had the nerve to knock on our door at 10:00 a.m. this morning to see if we'd left even though check-out is noon!  We had no water pressure in our sink, although the shower was fine.  We've stayed in hundreds of hotels across this country and there's only been one instance of a worse hotel experience that we've had.  NEVER EVER STAY HERE!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r117517337-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>117517337</t>
+  </si>
+  <si>
+    <t>08/31/2011</t>
+  </si>
+  <si>
+    <t>Just Say No!!!!</t>
+  </si>
+  <si>
+    <t>The first room we were in was too warm, and also by the back door.  The door slammed all night keeping us awake for much of the night.  The second room was completely without a working air conditioner.  The entire motel was dirty from the doors, to the graffiti on the elivator.  The third room, was cool and quiet.  At least it was quiet until the morning of checkout when one of the other guests apparently had a violent domestic quarrel.  I called the desk and asked for the police to be called.  I did not see the police, but did hear the phone in the room with the arguers ring immediately after my call to the desk.  This place is horrible.  I would not suggest this dump to homeless people.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>The first room we were in was too warm, and also by the back door.  The door slammed all night keeping us awake for much of the night.  The second room was completely without a working air conditioner.  The entire motel was dirty from the doors, to the graffiti on the elivator.  The third room, was cool and quiet.  At least it was quiet until the morning of checkout when one of the other guests apparently had a violent domestic quarrel.  I called the desk and asked for the police to be called.  I did not see the police, but did hear the phone in the room with the arguers ring immediately after my call to the desk.  This place is horrible.  I would not suggest this dump to homeless people.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r45104752-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>45104752</t>
+  </si>
+  <si>
+    <t>09/27/2009</t>
+  </si>
+  <si>
+    <t>Amazing.</t>
+  </si>
+  <si>
+    <t>I can't believe for 37.00 I got this hotel.  Clean!!!! I mean super clean.  Even with a pet friendly hotel its amazingly clean.  Stayed here for one night and am really really impressed. One of the best discount motels.  Its almost like Motel 6 bought it out of the IKEA catalog and plopped it down and opened up.  Flat screen TV's, clean linen, HOT water!!!!! quiet.  Really a nice place. Super awesome desk staff.</t>
+  </si>
+  <si>
+    <t>September 2009</t>
   </si>
 </sst>
 </file>
@@ -645,6 +1110,1366 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>34700</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>34700</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>34700</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>65</v>
+      </c>
+      <c r="J4" t="s">
+        <v>66</v>
+      </c>
+      <c r="K4" t="s">
+        <v>67</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" t="s">
+        <v>60</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>61</v>
+      </c>
+      <c r="X4" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>34700</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
+        <v>74</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>75</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>34700</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J6" t="s">
+        <v>79</v>
+      </c>
+      <c r="K6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>82</v>
+      </c>
+      <c r="O6" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>34700</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>85</v>
+      </c>
+      <c r="J7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>4</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>34700</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="n">
+        <v>2</v>
+      </c>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>34700</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" t="s">
+        <v>97</v>
+      </c>
+      <c r="K9" t="s">
+        <v>98</v>
+      </c>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" t="s">
+        <v>101</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>102</v>
+      </c>
+      <c r="X9" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>34700</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K10" t="s">
+        <v>108</v>
+      </c>
+      <c r="L10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="s">
+        <v>110</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>1</v>
+      </c>
+      <c r="S10" t="n">
+        <v>1</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>111</v>
+      </c>
+      <c r="X10" t="s">
+        <v>112</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>34700</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" t="s">
+        <v>117</v>
+      </c>
+      <c r="L11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>34700</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s">
+        <v>123</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>124</v>
+      </c>
+      <c r="O12" t="s">
+        <v>125</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>34700</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>131</v>
+      </c>
+      <c r="O13" t="s">
+        <v>101</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>34700</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>134</v>
+      </c>
+      <c r="J14" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" t="s">
+        <v>136</v>
+      </c>
+      <c r="L14" t="s">
+        <v>137</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>138</v>
+      </c>
+      <c r="O14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>3</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>34700</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>141</v>
+      </c>
+      <c r="J15" t="s">
+        <v>142</v>
+      </c>
+      <c r="K15" t="s">
+        <v>143</v>
+      </c>
+      <c r="L15" t="s">
+        <v>144</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>145</v>
+      </c>
+      <c r="O15" t="s">
+        <v>101</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>3</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>34700</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>148</v>
+      </c>
+      <c r="J16" t="s">
+        <v>149</v>
+      </c>
+      <c r="K16" t="s">
+        <v>150</v>
+      </c>
+      <c r="L16" t="s">
+        <v>151</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>152</v>
+      </c>
+      <c r="O16" t="s">
+        <v>125</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>34700</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>154</v>
+      </c>
+      <c r="J17" t="s">
+        <v>155</v>
+      </c>
+      <c r="K17" t="s">
+        <v>156</v>
+      </c>
+      <c r="L17" t="s">
+        <v>157</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>158</v>
+      </c>
+      <c r="O17" t="s">
+        <v>52</v>
+      </c>
+      <c r="P17" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>34700</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>159</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>160</v>
+      </c>
+      <c r="J18" t="s">
+        <v>161</v>
+      </c>
+      <c r="K18" t="s">
+        <v>162</v>
+      </c>
+      <c r="L18" t="s">
+        <v>163</v>
+      </c>
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>164</v>
+      </c>
+      <c r="O18" t="s">
+        <v>125</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" t="n">
+        <v>5</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>34700</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>165</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>166</v>
+      </c>
+      <c r="J19" t="s">
+        <v>167</v>
+      </c>
+      <c r="K19" t="s">
+        <v>168</v>
+      </c>
+      <c r="L19" t="s">
+        <v>169</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>170</v>
+      </c>
+      <c r="O19" t="s">
+        <v>60</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1</v>
+      </c>
+      <c r="R19" t="n">
+        <v>3</v>
+      </c>
+      <c r="S19" t="n">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>3</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>34700</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>173</v>
+      </c>
+      <c r="J20" t="s">
+        <v>174</v>
+      </c>
+      <c r="K20" t="s">
+        <v>175</v>
+      </c>
+      <c r="L20" t="s">
+        <v>176</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>177</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>3</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>34700</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>178</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>179</v>
+      </c>
+      <c r="J21" t="s">
+        <v>180</v>
+      </c>
+      <c r="K21" t="s">
+        <v>181</v>
+      </c>
+      <c r="L21" t="s">
+        <v>182</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>183</v>
+      </c>
+      <c r="O21" t="s">
+        <v>125</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="n">
+        <v>3</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>34700</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>185</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>186</v>
+      </c>
+      <c r="J22" t="s">
+        <v>187</v>
+      </c>
+      <c r="K22" t="s">
+        <v>188</v>
+      </c>
+      <c r="L22" t="s">
+        <v>189</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>190</v>
+      </c>
+      <c r="O22" t="s">
+        <v>101</v>
+      </c>
+      <c r="P22" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>1</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>34700</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>192</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>193</v>
+      </c>
+      <c r="J23" t="s">
+        <v>194</v>
+      </c>
+      <c r="K23" t="s">
+        <v>195</v>
+      </c>
+      <c r="L23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>197</v>
+      </c>
+      <c r="O23" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>196</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_560.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_560.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="220">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Coy C</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t>We checked in Friday night and as soon as we walked in we noticed a security guard standing there. That should have been the first sign to get the hell out. We checked in and took the elevator to the room. It smelled horrible and is very slow.. Went to the room and coukdnt beleive the bed frames. Its a metal frame with metal legs and a thin mattress. The comforter was nasty with stains and pulled it back and a rouch came from the sheets. It was already midnight and we were tired so decided to stay. At 1230 a group of people came to the room next door and was very loud, music blarring, cusing, slamming the doors repeatedly. We gave em 45 mins and they kept getting louder and finally called the front desk. They sent the security guard up and 10 mins later they syarted back up. We called the front desk 6 times that night and nothing was done! 80 percent of the people there are Black and if you aren't black then be ready to get treated like crap! The lady working the front desk with the purple hair is horrible. If your black you get service right then and there. White people stand there for 10 mins wholes she's screwing off. Worst hotel we have ever stayed at!More</t>
   </si>
   <si>
+    <t>phll69</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r478028526-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -210,6 +216,9 @@
     <t>Too many people in rooms. Prostitutes and pimps. Drugs. The rooms were ok. Just basics. Wouldn't take my kid to stay there. Wouldn't stay there by myself. Did once. Never again. But, that seems to be the normal for motel 6 now.More</t>
   </si>
   <si>
+    <t>Jim C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r472929100-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -228,6 +237,9 @@
     <t>Amina and Sandra both managers went beyond the call of duty to help me. I came in early before check in was allowed and the got me into a room early so i could rest at no additional cost. Also, thr helped me another issue that i had and bent over backwards for me.  This is an affordable option, my room was clean and thr front desk was exceptional!More</t>
   </si>
   <si>
+    <t>caylynn o</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r422696818-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -249,6 +261,9 @@
     <t>I checked in to this motel after a very long night at work, I was very exhausted so I immediately crashed once I got into the room. I work nights, so I slept all day. When I awoke I flipped the light switched only to see roaches scatter across the floor. My stomach sank after realizing I slept in this room all day... and thoughts of roaches crawling on me or in my mouth crossed my mind... disgusting... i then hoped out of the bed and shook off all my clothes .. Took some pictures of the scene, and made my way to the front desk. Once there, I told them the situation and requested compensation by refund. In an unapologetic tone, they refused my request and blamed the rain for the roaches and bed bugs. ... really? Even if that was true the room should have been exterminated and cleared of any bugs before being rented out. Sorry excuse, and lack of customer support. I would still like to speak to management about this to make it right as I am a frequent guest of various Motel 6 facilities. Caylynn Owens Western Parking Management More</t>
   </si>
   <si>
+    <t>bagleys0703</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r398586600-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -270,6 +285,9 @@
     <t>The room was newly updated but the floors were not clean. The bathtub was nice but get you get out the bath tub to realize there is no hair dryer. I went to the front desk thinking I just had to check one out. Not only were they rude they had no hair dryers period. I have been traveling for 10 years and have never been to a hotel that didn't have a hair dryer in the building. Nobody travels with a dryer anymore. Frustrating to say the least! Rather than spending the $20 to buy one we upgraded to another hotel for the next night for the $20 and it was best money we have spent on the trip! Much better hotel all the way around. Apparently customer service doesn't exist at this hotel!More</t>
   </si>
   <si>
+    <t>Linda S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r372144948-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -285,6 +303,9 @@
     <t>Stayed there 3 nights...Room was clean...No frills..coffee in the morning, no breakfast buffet but did have a microwave to heat stuff up in...The Front Staff could have been more friendly but over all a good stay and worth the money...</t>
   </si>
   <si>
+    <t>Jaime W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r365745329-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -303,6 +324,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>Jessica M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r319667212-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -333,6 +357,9 @@
     <t>The night I checked in the staff were friendly and helpful. I was in town for business from another state and had no family in the area. I requested a late checkout for 12:30 since my apt ended at noon and I was driving with another person who was staying at the motel while I was at my apt. We had 1 car so he was virtually stranded, and I needed to change cloths before we got back on the road. At Noon they came and told him he had to get out of the room. I found him sitting outside waiting for me. The day staff were rude and not helpful. They would not accommodate an out of state traveler an extra 30 minutes. I had to chnsge any my cloths in the parking lot. Will not stay here again and when I relocate, I will not let my family and friends stay at this motel either. More</t>
   </si>
   <si>
+    <t>CD0027</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r306939509-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -360,6 +387,9 @@
     <t>Attempted to stay here for the night.  The lobby smells like stale smoke.  The elevator had sunflower seeds and other trash in it.  The hallway on the second floor had trash all over it.  Worst of all, the room (214) had what looked to be either BED BUGS or TICKS crawling all over the beds.  We didn't stay needless to say.  Miguel, who worked the desk, was apologetic and nice, doesn't make up for the filth in this place.  And now I have to wait for a refund...More</t>
   </si>
   <si>
+    <t>Valerie D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r258315435-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -375,6 +405,9 @@
     <t xml:space="preserve">Didn't actually stay in the hotel but I can tell you it's not a place you want to stay. From the outside its not too bad but once you step foot in the lobby you are "greeted" by unfriendly staff in a very dated and not to clean lobby. When we were there the hallway smelled strongly of marijuana. We decided not to stay based on what we saw from the few minutes we were there. The only upside is that it's a cheap stay. Somewhere around $50 a night. </t>
   </si>
   <si>
+    <t>LeAnn T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r253358863-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -396,6 +429,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>Lantz1963</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r249813220-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -417,6 +453,9 @@
     <t>One of the worst places I have ever stayed. First night security and desk clerk knocked on our door twice saying we were too loud. (My girlfriend and I were only having a friendly conversation) Second night after returning from Joe's Crab Shack we were sitting in our car smoking (as there were no smoking rooms available during our stay) and the night staff called the Lewisville police on us. We were detained for over 45 minutes while they ran warrant checks on us and searched our car for narcotics. I was frisked by the police and they took my keys because of a small pen knife on my keyring. We were finally free to leave. The officer failed to retuun my keys and I had to call police dispatch and have the officer return my keys. Then later a knock on the dock again from security telling us we were too loud. I am an OTR driver and my girlfriend a CNA at a nursing home. We will never again stay at any Motel 6. Night staff needs to be replaced. Period! More</t>
   </si>
   <si>
+    <t>Geneve M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r237208388-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -438,6 +477,9 @@
     <t>Overall I was ok w/my stay at this motel &amp; likely would return if in area. Observed Front desk clerk never mentioning room numbers when people checking in which is good when checking in alone. He could not however not make any adjustments to my booking when error noted. Room advertised as having microwave &amp; refrigerator but none in room-checkout clerk reported I had to ask for these items at check in or when booking which was strange to me. Room &amp; bathroom clean w/exception of corners of bathroom vanity which were dusty. Bath towels were a little rough but not so you couldn't use them. Room furnishings reminded me of European adult hostels-minimalist. So if you are looking for free breakfast, hairdryer, iron/ironing board, closet w/hangers, coffee maker (coffee available at front desk) or chest of drawers, you wont find it here. I was ok w/this as I didn't need these items &amp; could get a cheap breakfast for the amount of money I saved on the room price. Heard couple of noises in evening but not consistent such that it was troublesome. Front desk had multiple video cameras of the parking lots which made me feel secure about my car.  Checkout clerk could not give me a zero receipt-she referred me to the booking agent.More</t>
   </si>
   <si>
+    <t>John W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r221983599-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -459,6 +501,9 @@
     <t>I am generally not a fan of Motel 6's.  Unfortunately my company put me up here even though I was working way in Frisco.  I was here for 11 nights and can tell you that there was law enforcement activity at the hotel 3-4 of those nights.  They charge for wi-fi, and there is no FOX News.  Your only choice is CNN.  I mentioned it twice to the front desk and they pretty much blew me off.  There were a few nice clerks at the front desk who really try to please - they have a tough job with the crowd that stays at a place like Motel 6.  Despite the rough crowd, I can tell you that the hotel was clean, and maid service did a great job.  Do yourself a favor and spend the same money or maybe just a few more dollars and stay across the street at the La Quinta - Lewisville.  You get a ton more value and bang for your buck.More</t>
   </si>
   <si>
+    <t>SaintVitas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r215128241-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -477,6 +522,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>Rick D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r182147461-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -495,6 +543,9 @@
     <t>October 2013</t>
   </si>
   <si>
+    <t>Grueber2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r176775729-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -513,6 +564,9 @@
     <t>September 2013</t>
   </si>
   <si>
+    <t>jcanberra</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r175273681-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -534,6 +588,9 @@
     <t>If you do not care about the smell of cigarettes, then please by all means book the hotel because you will probably like it for the price.  I get that I was paying cheap rates for a budget hotel, but I cannot and will not deal with rooms that smell like cigarettes.  The hotel assured me that they had non-smoking rooms and sure enough the sign on the door said non-smoking.  But the fact is it reeked very bad of cigarettes.  My guess is because so many hotels are smoke free, this hotel gets all the smokers and the whole building is a pack of cigarettes.  So if you hate smoking like I do, there were plenty of smoke free hotels in the area for the near the same price, so book elsewhere.More</t>
   </si>
   <si>
+    <t>txtm13</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r130705271-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -552,6 +609,9 @@
     <t>May 2012</t>
   </si>
   <si>
+    <t>TexasScopist</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r125946274-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -573,6 +633,9 @@
     <t>We stayed there last night -- HORRIBLE!!!  We actually complained this morning and got a refund in full.  I still have to talk to the GM Tim Stringer , as well as his boss!  Doors slammed ALL night long.  Could hear every single word that our neighbors said standing in the hallway outside our door, loud and clear.  Heard every person that walked past our room or walked down the hall above our room, I think.  Like the other reviewers, there is definitely NOTHING to the walls, absolutely no soundproofing at all.  Housekeeping had the nerve to knock on our door at 10:00 a.m. this morning to see if we'd left even though check-out is noon!  We had no water pressure in our sink, although the shower was fine.  We've stayed in hundreds of hotels across this country and there's only been one instance of a worse hotel experience that we've had.  NEVER EVER STAY HERE!More</t>
   </si>
   <si>
+    <t>rob56664</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r117517337-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -592,6 +655,9 @@
   </si>
   <si>
     <t>The first room we were in was too warm, and also by the back door.  The door slammed all night keeping us awake for much of the night.  The second room was completely without a working air conditioner.  The entire motel was dirty from the doors, to the graffiti on the elivator.  The third room, was cool and quiet.  At least it was quiet until the morning of checkout when one of the other guests apparently had a violent domestic quarrel.  I called the desk and asked for the police to be called.  I did not see the police, but did hear the phone in the room with the arguers ring immediately after my call to the desk.  This place is horrible.  I would not suggest this dump to homeless people.More</t>
+  </si>
+  <si>
+    <t>anothertiredtourist</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r45104752-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -1114,43 +1180,47 @@
       <c r="A2" t="n">
         <v>34700</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>169302</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1164,50 +1234,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>34700</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>169303</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1219,56 +1293,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>34700</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>9190</v>
+      </c>
+      <c r="C4" t="s">
+        <v>66</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="J4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="L4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1280,56 +1358,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="X4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Y4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>34700</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>169304</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1343,50 +1425,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>34700</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>169305</v>
+      </c>
+      <c r="C6" t="s">
+        <v>81</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="J6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="K6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="L6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="O6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1400,41 +1486,45 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>34700</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>6383</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M7" t="n">
         <v>4</v>
@@ -1453,50 +1543,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>34700</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>169306</v>
+      </c>
+      <c r="C8" t="s">
+        <v>95</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="J8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="L8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1514,50 +1608,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>34700</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>1401</v>
+      </c>
+      <c r="C9" t="s">
+        <v>102</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="J9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="K9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="O9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1569,56 +1667,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
       <c r="X9" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="Y9" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>34700</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>169307</v>
+      </c>
+      <c r="C10" t="s">
+        <v>113</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1636,47 +1738,51 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="X10" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="Y10" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>34700</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>92354</v>
+      </c>
+      <c r="C11" t="s">
+        <v>123</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="J11" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="K11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="L11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="M11" t="n">
         <v>2</v>
@@ -1695,50 +1801,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>34700</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>169308</v>
+      </c>
+      <c r="C12" t="s">
+        <v>129</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="J12" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
       <c r="K12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="L12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="O12" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="P12" t="n">
         <v>1</v>
@@ -1758,50 +1868,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>34700</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>169309</v>
+      </c>
+      <c r="C13" t="s">
+        <v>137</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="J13" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="K13" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="L13" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="O13" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -1815,50 +1929,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>34700</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>101573</v>
+      </c>
+      <c r="C14" t="s">
+        <v>145</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="J14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="K14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="L14" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -1878,50 +1996,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>34700</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>2435</v>
+      </c>
+      <c r="C15" t="s">
+        <v>153</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="J15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="K15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="L15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="O15" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
@@ -1941,50 +2063,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>146</v>
+        <v>160</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>34700</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>28363</v>
+      </c>
+      <c r="C16" t="s">
+        <v>161</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="J16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="K16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="L16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="M16" t="n">
         <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="O16" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -2002,50 +2128,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>34700</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>38905</v>
+      </c>
+      <c r="C17" t="s">
+        <v>168</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="J17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="K17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="L17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P17" t="n">
         <v>4</v>
@@ -2069,50 +2199,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>34700</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>169310</v>
+      </c>
+      <c r="C18" t="s">
+        <v>175</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="J18" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="K18" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="L18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="O18" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -2136,50 +2270,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>34700</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>169311</v>
+      </c>
+      <c r="C19" t="s">
+        <v>182</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>165</v>
+        <v>183</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="J19" t="s">
-        <v>167</v>
+        <v>185</v>
       </c>
       <c r="K19" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
       <c r="L19" t="s">
-        <v>169</v>
+        <v>187</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
       </c>
       <c r="N19" t="s">
-        <v>170</v>
+        <v>188</v>
       </c>
       <c r="O19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P19" t="n">
         <v>3</v>
@@ -2203,50 +2341,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>171</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>34700</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>169312</v>
+      </c>
+      <c r="C20" t="s">
+        <v>190</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>172</v>
+        <v>191</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="J20" t="s">
-        <v>174</v>
+        <v>193</v>
       </c>
       <c r="K20" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="L20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>177</v>
+        <v>196</v>
       </c>
       <c r="O20" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P20" t="n">
         <v>5</v>
@@ -2270,50 +2412,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>176</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>34700</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>169313</v>
+      </c>
+      <c r="C21" t="s">
+        <v>197</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="J21" t="s">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="K21" t="s">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="L21" t="s">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>183</v>
+        <v>203</v>
       </c>
       <c r="O21" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -2337,50 +2483,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>184</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>34700</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>148907</v>
+      </c>
+      <c r="C22" t="s">
+        <v>205</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>186</v>
+        <v>207</v>
       </c>
       <c r="J22" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="K22" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="L22" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="O22" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="P22" t="n">
         <v>1</v>
@@ -2400,50 +2550,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>34700</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>169314</v>
+      </c>
+      <c r="C23" t="s">
+        <v>213</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="J23" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="K23" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="L23" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="M23" t="n">
         <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="O23" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -2467,7 +2621,7 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_560.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_560.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="304">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,69 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Coy C</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r555260091-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>56161</t>
+  </si>
+  <si>
+    <t>244372</t>
+  </si>
+  <si>
+    <t>555260091</t>
+  </si>
+  <si>
+    <t>01/21/2018</t>
+  </si>
+  <si>
+    <t>Clean and comfortable rooms</t>
+  </si>
+  <si>
+    <t>It is a great place for the price.  Very pleased with the stay.  Nothing fancy but has all the necessities.  Clean rooms, clean sheets, comfortable bed.  Coffee in the morning.   It is conveniently off of I35.  The only negative is the dryers did not work in the laundry room.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r519182645-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>519182645</t>
+  </si>
+  <si>
+    <t>08/29/2017</t>
+  </si>
+  <si>
+    <t>Run don't walk</t>
+  </si>
+  <si>
+    <t>We came here to escape hurricane Harvey and it was the worse ever. Elevator smelled.. got off on 3rd floor which we got an immediate high from the stinch of weed.. then we had to walk all around the creepy guy just sitting in the hall on the phone.. went to complain but night guy and security really didn't seem to care.. we stayed the night and decided to just check out early and after the wonderful stay they decided to screw us for checking out early and wouldn't refund our next day.. mind you we left at 7 in the morning plenty of time to clean and rent room.. when I asked to see where in their policy it says this.. she couldn't produce it.. please people stay awayMoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team at Motel 6 Dallas - Lewisville, responded to this reviewResponded August 31, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 31, 2017</t>
+  </si>
+  <si>
+    <t>We came here to escape hurricane Harvey and it was the worse ever. Elevator smelled.. got off on 3rd floor which we got an immediate high from the stinch of weed.. then we had to walk all around the creepy guy just sitting in the hall on the phone.. went to complain but night guy and security really didn't seem to care.. we stayed the night and decided to just check out early and after the wonderful stay they decided to screw us for checking out early and wouldn't refund our next day.. mind you we left at 7 in the morning plenty of time to clean and rent room.. when I asked to see where in their policy it says this.. she couldn't produce it.. please people stay awayMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r479342687-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
-    <t>56161</t>
-  </si>
-  <si>
-    <t>244372</t>
-  </si>
-  <si>
     <t>479342687</t>
   </si>
   <si>
@@ -177,15 +225,9 @@
     <t>April 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>We checked in Friday night and as soon as we walked in we noticed a security guard standing there. That should have been the first sign to get the hell out. We checked in and took the elevator to the room. It smelled horrible and is very slow.. Went to the room and coukdnt beleive the bed frames. Its a metal frame with metal legs and a thin mattress. The comforter was nasty with stains and pulled it back and a rouch came from the sheets. It was already midnight and we were tired so decided to stay. At 1230 a group of people came to the room next door and was very loud, music blarring, cusing, slamming the doors repeatedly. We gave em 45 mins and they kept getting louder and finally called the front desk. They sent the security guard up and 10 mins later they syarted back up. We called the front desk 6 times that night and nothing was done! 80 percent of the people there are Black and if you aren't black then be ready to get treated like crap! The lady working the front desk with the purple hair is horrible. If your black you get service right then and there. White people stand there for 10 mins wholes she's screwing off. Worst hotel we have ever stayed at!More</t>
   </si>
   <si>
-    <t>phll69</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r478028526-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -204,9 +246,6 @@
     <t>February 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
     <t>6Team, Brand Experience Team at Motel 6 Dallas - Lewisville, responded to this reviewResponded April 28, 2017</t>
   </si>
   <si>
@@ -216,9 +255,6 @@
     <t>Too many people in rooms. Prostitutes and pimps. Drugs. The rooms were ok. Just basics. Wouldn't take my kid to stay there. Wouldn't stay there by myself. Did once. Never again. But, that seems to be the normal for motel 6 now.More</t>
   </si>
   <si>
-    <t>Jim C</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r472929100-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -237,7 +273,40 @@
     <t>Amina and Sandra both managers went beyond the call of duty to help me. I came in early before check in was allowed and the got me into a room early so i could rest at no additional cost. Also, thr helped me another issue that i had and bent over backwards for me.  This is an affordable option, my room was clean and thr front desk was exceptional!More</t>
   </si>
   <si>
-    <t>caylynn o</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r468678046-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>468678046</t>
+  </si>
+  <si>
+    <t>03/19/2017</t>
+  </si>
+  <si>
+    <t>New people at the desk with great service. Close to the hwy with clean rooms. It was my first time staying here. I wish they had free wifi. I was able to get additional towels when I requested. Very close to two nice restaurants. This will definitely be my stop when am in DallasMoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>New people at the desk with great service. Close to the hwy with clean rooms. It was my first time staying here. I wish they had free wifi. I was able to get additional towels when I requested. Very close to two nice restaurants. This will definitely be my stop when am in DallasMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r460526278-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>460526278</t>
+  </si>
+  <si>
+    <t>02/16/2017</t>
+  </si>
+  <si>
+    <t>Do not appear White or Conservative</t>
+  </si>
+  <si>
+    <t>The overwhelming residences are Black. No!!! I am not racist, I am protective of me being human however, this Motel is managed by racists, perks are given to those of color, I was deemed lower class guest. The purple-haired woman at desk in wvenings would not even acknowledge my presence until I asserted myself, she was never happy dealing with me, laughing and ridiculing me behind my back but within earshot. So be prepared to be belittled here.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r422696818-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -261,9 +330,6 @@
     <t>I checked in to this motel after a very long night at work, I was very exhausted so I immediately crashed once I got into the room. I work nights, so I slept all day. When I awoke I flipped the light switched only to see roaches scatter across the floor. My stomach sank after realizing I slept in this room all day... and thoughts of roaches crawling on me or in my mouth crossed my mind... disgusting... i then hoped out of the bed and shook off all my clothes .. Took some pictures of the scene, and made my way to the front desk. Once there, I told them the situation and requested compensation by refund. In an unapologetic tone, they refused my request and blamed the rain for the roaches and bed bugs. ... really? Even if that was true the room should have been exterminated and cleared of any bugs before being rented out. Sorry excuse, and lack of customer support. I would still like to speak to management about this to make it right as I am a frequent guest of various Motel 6 facilities. Caylynn Owens Western Parking Management More</t>
   </si>
   <si>
-    <t>bagleys0703</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r398586600-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -285,9 +351,6 @@
     <t>The room was newly updated but the floors were not clean. The bathtub was nice but get you get out the bath tub to realize there is no hair dryer. I went to the front desk thinking I just had to check one out. Not only were they rude they had no hair dryers period. I have been traveling for 10 years and have never been to a hotel that didn't have a hair dryer in the building. Nobody travels with a dryer anymore. Frustrating to say the least! Rather than spending the $20 to buy one we upgraded to another hotel for the next night for the $20 and it was best money we have spent on the trip! Much better hotel all the way around. Apparently customer service doesn't exist at this hotel!More</t>
   </si>
   <si>
-    <t>Linda S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r372144948-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -303,7 +366,43 @@
     <t>Stayed there 3 nights...Room was clean...No frills..coffee in the morning, no breakfast buffet but did have a microwave to heat stuff up in...The Front Staff could have been more friendly but over all a good stay and worth the money...</t>
   </si>
   <si>
-    <t>Jaime W</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r368073144-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>368073144</t>
+  </si>
+  <si>
+    <t>04/27/2016</t>
+  </si>
+  <si>
+    <t>Need to be closed down</t>
+  </si>
+  <si>
+    <t>First of all the pictures on the internet are overrated whoever took those pictures took some good pictures it look nothing like that the lobby has a bad smell to it... the walls and floors are disgusting it's very nasty I should have asked to look at the room before  I pay so we checked in and went upstairs we put our things in the room and left about 20 minutes I called back over there I told the manager Miguel that we wasn't going to be able to stay there that I didn't feel safe so my family and i went back to the room to get our things out of the room ... Miguel was supposed to go with us to check the room to make sure that it was still clean but he couldn't leave because he was scared so I had  to wait because he didn't want to leave the lobby without having the security guard there to watch the lobby so apparently he didn't feel safe his self to go check the room to make sure we didn't mess the room up  he's supposed to have  refunded my $140 I'm yet to get it.... now they did credit $140 back to my account but they sent $140 and pulled it out again so they got paid for the room that I didn't stay in... it's just best to pay for a nice room and don't...First of all the pictures on the internet are overrated whoever took those pictures took some good pictures it look nothing like that the lobby has a bad smell to it... the walls and floors are disgusting it's very nasty I should have asked to look at the room before  I pay so we checked in and went upstairs we put our things in the room and left about 20 minutes I called back over there I told the manager Miguel that we wasn't going to be able to stay there that I didn't feel safe so my family and i went back to the room to get our things out of the room ... Miguel was supposed to go with us to check the room to make sure that it was still clean but he couldn't leave because he was scared so I had  to wait because he didn't want to leave the lobby without having the security guard there to watch the lobby so apparently he didn't feel safe his self to go check the room to make sure we didn't mess the room up  he's supposed to have  refunded my $140 I'm yet to get it.... now they did credit $140 back to my account but they sent $140 and pulled it out again so they got paid for the room that I didn't stay in... it's just best to pay for a nice room and don't settle for the cheap rooms because there's always something wrong with it Motel 6 is not the roomMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>First of all the pictures on the internet are overrated whoever took those pictures took some good pictures it look nothing like that the lobby has a bad smell to it... the walls and floors are disgusting it's very nasty I should have asked to look at the room before  I pay so we checked in and went upstairs we put our things in the room and left about 20 minutes I called back over there I told the manager Miguel that we wasn't going to be able to stay there that I didn't feel safe so my family and i went back to the room to get our things out of the room ... Miguel was supposed to go with us to check the room to make sure that it was still clean but he couldn't leave because he was scared so I had  to wait because he didn't want to leave the lobby without having the security guard there to watch the lobby so apparently he didn't feel safe his self to go check the room to make sure we didn't mess the room up  he's supposed to have  refunded my $140 I'm yet to get it.... now they did credit $140 back to my account but they sent $140 and pulled it out again so they got paid for the room that I didn't stay in... it's just best to pay for a nice room and don't...First of all the pictures on the internet are overrated whoever took those pictures took some good pictures it look nothing like that the lobby has a bad smell to it... the walls and floors are disgusting it's very nasty I should have asked to look at the room before  I pay so we checked in and went upstairs we put our things in the room and left about 20 minutes I called back over there I told the manager Miguel that we wasn't going to be able to stay there that I didn't feel safe so my family and i went back to the room to get our things out of the room ... Miguel was supposed to go with us to check the room to make sure that it was still clean but he couldn't leave because he was scared so I had  to wait because he didn't want to leave the lobby without having the security guard there to watch the lobby so apparently he didn't feel safe his self to go check the room to make sure we didn't mess the room up  he's supposed to have  refunded my $140 I'm yet to get it.... now they did credit $140 back to my account but they sent $140 and pulled it out again so they got paid for the room that I didn't stay in... it's just best to pay for a nice room and don't settle for the cheap rooms because there's always something wrong with it Motel 6 is not the roomMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r367289591-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>367289591</t>
+  </si>
+  <si>
+    <t>04/25/2016</t>
+  </si>
+  <si>
+    <t>Worsed Ever!!!!</t>
+  </si>
+  <si>
+    <t>Worsed stay in a Hotel /Motel EVER!! I would never ever recommend this place.  The nightly activities just unbelievable.  From arguing /screaming fights,  knocking on doors 1-2am in the morning and running off OVER and OVER . Very scary experience! The Staff, good Lord!  Most unfriendly we EVER run in to. Towels are a joke after taking shower (size wise) besides paper thin.  We didn't expect the rooms that tiny either lol. It was a nightmare all together and we could not wait for eirly morning check out exhausted  needless to say!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r365745329-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -321,12 +420,6 @@
     <t>We checked in and should have known right from the start that it was going to be bad!  The lobby smelled like stale smoke and we were literally feeling like we were being set up--like the staff were calling up their friends saying "We got one for you, go get 'em."  We passed a man in the hallway who was clearly high.  One look at the bed in our room and we got the heck out!  The bed was similar to what someone may get in jail.  A mattress on a metal plate.  No box spring.  I can't believe what I saw.</t>
   </si>
   <si>
-    <t>April 2016</t>
-  </si>
-  <si>
-    <t>Jessica M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r319667212-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -345,9 +438,6 @@
     <t>October 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>6Team, Team 6 at Motel 6 Dallas - Lewisville, responded to this reviewResponded October 22, 2015</t>
   </si>
   <si>
@@ -357,9 +447,6 @@
     <t>The night I checked in the staff were friendly and helpful. I was in town for business from another state and had no family in the area. I requested a late checkout for 12:30 since my apt ended at noon and I was driving with another person who was staying at the motel while I was at my apt. We had 1 car so he was virtually stranded, and I needed to change cloths before we got back on the road. At Noon they came and told him he had to get out of the room. I found him sitting outside waiting for me. The day staff were rude and not helpful. They would not accommodate an out of state traveler an extra 30 minutes. I had to chnsge any my cloths in the parking lot. Will not stay here again and when I relocate, I will not let my family and friends stay at this motel either. More</t>
   </si>
   <si>
-    <t>CD0027</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r306939509-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -387,7 +474,58 @@
     <t>Attempted to stay here for the night.  The lobby smells like stale smoke.  The elevator had sunflower seeds and other trash in it.  The hallway on the second floor had trash all over it.  Worst of all, the room (214) had what looked to be either BED BUGS or TICKS crawling all over the beds.  We didn't stay needless to say.  Miguel, who worked the desk, was apologetic and nice, doesn't make up for the filth in this place.  And now I have to wait for a refund...More</t>
   </si>
   <si>
-    <t>Valerie D</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r290892437-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>290892437</t>
+  </si>
+  <si>
+    <t>07/20/2015</t>
+  </si>
+  <si>
+    <t>Hard Beds and the 1- 800 number promises .....</t>
+  </si>
+  <si>
+    <t>We arrived and initially  upon arrival and we were informed that despite the fact that I had a AMAC  card and I been promised a discount , it  would not be honored , so the place offers me a discount I  will not discuss what type  because I  dont  wanna get the kid in  trouble , however  he did mention it  bothered him that the 1800 number people make promises he has to keep  . The beds are hard . not just hard  but HAAARRDDDDDDD    we woke up with a stiff back .the ac didn't work in  2 of the rooms , granted we weren't looking  to start an  ice age in the room but  it  was well over  100 degrees bringing  it  down to at  least  72 was reasonable so my guys in  my group switched we didn't . all in  all Motel 6 has revamped their rooms but they  still suck . I  always stay at holiday  inn or the like , we  didn't , I  regret it  the mega cop security guard wanna be  made my wife get  out of the pool early  he stated he didnt care what the sign said they  were getting  out  and that  she was lucky  he let her stay that  long.... really??????MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Dallas - Lewisville, responded to this reviewResponded July 21, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 21, 2015</t>
+  </si>
+  <si>
+    <t>We arrived and initially  upon arrival and we were informed that despite the fact that I had a AMAC  card and I been promised a discount , it  would not be honored , so the place offers me a discount I  will not discuss what type  because I  dont  wanna get the kid in  trouble , however  he did mention it  bothered him that the 1800 number people make promises he has to keep  . The beds are hard . not just hard  but HAAARRDDDDDDD    we woke up with a stiff back .the ac didn't work in  2 of the rooms , granted we weren't looking  to start an  ice age in the room but  it  was well over  100 degrees bringing  it  down to at  least  72 was reasonable so my guys in  my group switched we didn't . all in  all Motel 6 has revamped their rooms but they  still suck . I  always stay at holiday  inn or the like , we  didn't , I  regret it  the mega cop security guard wanna be  made my wife get  out of the pool early  he stated he didnt care what the sign said they  were getting  out  and that  she was lucky  he let her stay that  long.... really??????More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r268410327-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>268410327</t>
+  </si>
+  <si>
+    <t>04/27/2015</t>
+  </si>
+  <si>
+    <t>HORRIBLE</t>
+  </si>
+  <si>
+    <t>When I got into the lobby it smelt like marijuana. When I got to my room it smelt horrible, all of the furniture is coming apart, there was sticky stuff all over the night stand, when I went into the bathroom there was a long black hair on the toilet right on the toilet seat(you could clearly see the hair right as you looked at the toilet, so I sprayed it with Lysol, I wipes the Lysol off and looked at the rag I was using it was almost completely black. The whole place is so disgusting. I felt very uncomfortable the whole time. There were woman with barley any clothes on walking all around the hotel over and over. I stayed there for three days I saw them each day more then once a day. My complete expirience was horrible.  To add on top of all that when I was laying down I found bugs crawling around in the sheets and dead bugs in the sheets &amp; on top of the bed spread. DISGUSTING!MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Dallas - Lewisville, responded to this reviewResponded April 29, 2015</t>
+  </si>
+  <si>
+    <t>Responded April 29, 2015</t>
+  </si>
+  <si>
+    <t>When I got into the lobby it smelt like marijuana. When I got to my room it smelt horrible, all of the furniture is coming apart, there was sticky stuff all over the night stand, when I went into the bathroom there was a long black hair on the toilet right on the toilet seat(you could clearly see the hair right as you looked at the toilet, so I sprayed it with Lysol, I wipes the Lysol off and looked at the rag I was using it was almost completely black. The whole place is so disgusting. I felt very uncomfortable the whole time. There were woman with barley any clothes on walking all around the hotel over and over. I stayed there for three days I saw them each day more then once a day. My complete expirience was horrible.  To add on top of all that when I was laying down I found bugs crawling around in the sheets and dead bugs in the sheets &amp; on top of the bed spread. DISGUSTING!More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r258315435-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -405,9 +543,6 @@
     <t xml:space="preserve">Didn't actually stay in the hotel but I can tell you it's not a place you want to stay. From the outside its not too bad but once you step foot in the lobby you are "greeted" by unfriendly staff in a very dated and not to clean lobby. When we were there the hallway smelled strongly of marijuana. We decided not to stay based on what we saw from the few minutes we were there. The only upside is that it's a cheap stay. Somewhere around $50 a night. </t>
   </si>
   <si>
-    <t>LeAnn T</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r253358863-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -426,12 +561,6 @@
     <t>February 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
-    <t>Lantz1963</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r249813220-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -453,7 +582,43 @@
     <t>One of the worst places I have ever stayed. First night security and desk clerk knocked on our door twice saying we were too loud. (My girlfriend and I were only having a friendly conversation) Second night after returning from Joe's Crab Shack we were sitting in our car smoking (as there were no smoking rooms available during our stay) and the night staff called the Lewisville police on us. We were detained for over 45 minutes while they ran warrant checks on us and searched our car for narcotics. I was frisked by the police and they took my keys because of a small pen knife on my keyring. We were finally free to leave. The officer failed to retuun my keys and I had to call police dispatch and have the officer return my keys. Then later a knock on the dock again from security telling us we were too loud. I am an OTR driver and my girlfriend a CNA at a nursing home. We will never again stay at any Motel 6. Night staff needs to be replaced. Period! More</t>
   </si>
   <si>
-    <t>Geneve M</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r248292542-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>248292542</t>
+  </si>
+  <si>
+    <t>01/08/2015</t>
+  </si>
+  <si>
+    <t>Want a Shower? Dont Stay Here</t>
+  </si>
+  <si>
+    <t>I went on a solo trip to Dallas last minute. I decided on the Motel 6 because of its price. This place looks nice but looks can be deceiving. The staff can't be bothered by you or your piddley needs. The room had 2 beds *thankfully* because had I asked for another blanket I would have been laughed at. If you forgot a toiletry don't worry they don't have any to give you. The shower was pretty but it isn't functional. The shower pressure is non existent and the towels... Hope you like drying off with sandpaper. Oh and no free wifi here either. If you're looking for a bargin I suggest you spend a little more somewhere else. I basically paid for a bed. I could have stayed somewhere else in the same price range and got at least a towel that wasn't ripping my skin as I dried offMoreShow less</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team member at Motel 6 Dallas - Lewisville, responded to this reviewResponded March 11, 2015</t>
+  </si>
+  <si>
+    <t>Responded March 11, 2015</t>
+  </si>
+  <si>
+    <t>I went on a solo trip to Dallas last minute. I decided on the Motel 6 because of its price. This place looks nice but looks can be deceiving. The staff can't be bothered by you or your piddley needs. The room had 2 beds *thankfully* because had I asked for another blanket I would have been laughed at. If you forgot a toiletry don't worry they don't have any to give you. The shower was pretty but it isn't functional. The shower pressure is non existent and the towels... Hope you like drying off with sandpaper. Oh and no free wifi here either. If you're looking for a bargin I suggest you spend a little more somewhere else. I basically paid for a bed. I could have stayed somewhere else in the same price range and got at least a towel that wasn't ripping my skin as I dried offMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r246632167-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>246632167</t>
+  </si>
+  <si>
+    <t>12/30/2014</t>
+  </si>
+  <si>
+    <t>Great value for the price!</t>
+  </si>
+  <si>
+    <t>I came during shift change. The out going female was using very provactive language used within her culture with a local tenant. Being a Wednesday @2300 hrs it was a loud exchange but I was glad the oncing shift was a lot more polite. The room was very modern and nicely painted. Although the cigerette burns on the bedspreads, floors, and smell of smoke in the nonsmoking room was very uncool. After stepping over the crack pipe in the hallway I would say the people staying there maybe suspect...but for the cheap price the "crack heads" can afford to stay too!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r237208388-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -477,9 +642,6 @@
     <t>Overall I was ok w/my stay at this motel &amp; likely would return if in area. Observed Front desk clerk never mentioning room numbers when people checking in which is good when checking in alone. He could not however not make any adjustments to my booking when error noted. Room advertised as having microwave &amp; refrigerator but none in room-checkout clerk reported I had to ask for these items at check in or when booking which was strange to me. Room &amp; bathroom clean w/exception of corners of bathroom vanity which were dusty. Bath towels were a little rough but not so you couldn't use them. Room furnishings reminded me of European adult hostels-minimalist. So if you are looking for free breakfast, hairdryer, iron/ironing board, closet w/hangers, coffee maker (coffee available at front desk) or chest of drawers, you wont find it here. I was ok w/this as I didn't need these items &amp; could get a cheap breakfast for the amount of money I saved on the room price. Heard couple of noises in evening but not consistent such that it was troublesome. Front desk had multiple video cameras of the parking lots which made me feel secure about my car.  Checkout clerk could not give me a zero receipt-she referred me to the booking agent.More</t>
   </si>
   <si>
-    <t>John W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r221983599-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -501,9 +663,6 @@
     <t>I am generally not a fan of Motel 6's.  Unfortunately my company put me up here even though I was working way in Frisco.  I was here for 11 nights and can tell you that there was law enforcement activity at the hotel 3-4 of those nights.  They charge for wi-fi, and there is no FOX News.  Your only choice is CNN.  I mentioned it twice to the front desk and they pretty much blew me off.  There were a few nice clerks at the front desk who really try to please - they have a tough job with the crowd that stays at a place like Motel 6.  Despite the rough crowd, I can tell you that the hotel was clean, and maid service did a great job.  Do yourself a favor and spend the same money or maybe just a few more dollars and stay across the street at the La Quinta - Lewisville.  You get a ton more value and bang for your buck.More</t>
   </si>
   <si>
-    <t>SaintVitas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r215128241-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -522,7 +681,43 @@
     <t>July 2014</t>
   </si>
   <si>
-    <t>Rick D</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r193304861-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>193304861</t>
+  </si>
+  <si>
+    <t>02/06/2014</t>
+  </si>
+  <si>
+    <t>Recently renovated and clean.</t>
+  </si>
+  <si>
+    <t>This motel has been either recently renovated or recently constructed. Room was in great, clean condition but we hated the vinyl floors.We understand the cleanliness aspect of not having carpets, but perhaps some "throw" rugs or something! Not only was it "cold" in our room, but upstairs there was a lady with heels (around 1 a.m.) who kept pacing back and forth on that floor for about an hour which made it almost impossible to fall asleep below her.  The water pressure in the shower was UNBELIEVABLY harsh/hard and almost hurt to get into the water! SO unusual! Just needs some adjustment. Lastly, not a fan of the "new/lightweight" bedspreads.  You might as well be sleeping under two sheets! Not a fan of them.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>This motel has been either recently renovated or recently constructed. Room was in great, clean condition but we hated the vinyl floors.We understand the cleanliness aspect of not having carpets, but perhaps some "throw" rugs or something! Not only was it "cold" in our room, but upstairs there was a lady with heels (around 1 a.m.) who kept pacing back and forth on that floor for about an hour which made it almost impossible to fall asleep below her.  The water pressure in the shower was UNBELIEVABLY harsh/hard and almost hurt to get into the water! SO unusual! Just needs some adjustment. Lastly, not a fan of the "new/lightweight" bedspreads.  You might as well be sleeping under two sheets! Not a fan of them.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r186759667-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>186759667</t>
+  </si>
+  <si>
+    <t>12/04/2013</t>
+  </si>
+  <si>
+    <t>Great service close to everything</t>
+  </si>
+  <si>
+    <t>We were stranded in Dallas awaiting our travel trailer being repaired. This Motel 6 was just down the road from the rv repair place, close to everything needed to entertain ourselves, clean and comfortable, and great smiling service from everyone.It is your basic room with the standard firm mattress but add in the steaming hot shower and we were comfy. Not many places allow pets but Motel 6 is great about understanding travelers who have traded their kids for animals :)</t>
+  </si>
+  <si>
+    <t>December 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r182147461-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -543,9 +738,6 @@
     <t>October 2013</t>
   </si>
   <si>
-    <t>Grueber2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r176775729-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -564,9 +756,6 @@
     <t>September 2013</t>
   </si>
   <si>
-    <t>jcanberra</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r175273681-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -588,7 +777,40 @@
     <t>If you do not care about the smell of cigarettes, then please by all means book the hotel because you will probably like it for the price.  I get that I was paying cheap rates for a budget hotel, but I cannot and will not deal with rooms that smell like cigarettes.  The hotel assured me that they had non-smoking rooms and sure enough the sign on the door said non-smoking.  But the fact is it reeked very bad of cigarettes.  My guess is because so many hotels are smoke free, this hotel gets all the smokers and the whole building is a pack of cigarettes.  So if you hate smoking like I do, there were plenty of smoke free hotels in the area for the near the same price, so book elsewhere.More</t>
   </si>
   <si>
-    <t>txtm13</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r165992013-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>165992013</t>
+  </si>
+  <si>
+    <t>07/01/2013</t>
+  </si>
+  <si>
+    <t>Very Impressed....I know your thinking Motel 6?</t>
+  </si>
+  <si>
+    <t>Yes..I have stayed at this location several times. I travel for my job and find this Motel 6 to be the Best in the DFW Area. The location is convenient, safe neighborhood. The staff here are a nice as they come. Every time I check in. The woman at the front her name is Norma. Is so helpful and accommodating. On this particular trip I had to change rooms. Being the professional she is, Norma let me look at several rooms until I got the one I wanted. It just so happens I've stayed in the exact room before. The rooms are completely updated, from the walls to the floors. No carpet..I love that. The fact that they have no carpet is the main reason I love it. I travel with a service animal. They are animal and or pet friendly. There is a nice pool, and a clean laundry room on the second floor. My recommendation is if your looking for a safe, clean place, and wanna save a couple of extra bucks. Motel 6 in Lewisville is a great place!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>Yes..I have stayed at this location several times. I travel for my job and find this Motel 6 to be the Best in the DFW Area. The location is convenient, safe neighborhood. The staff here are a nice as they come. Every time I check in. The woman at the front her name is Norma. Is so helpful and accommodating. On this particular trip I had to change rooms. Being the professional she is, Norma let me look at several rooms until I got the one I wanted. It just so happens I've stayed in the exact room before. The rooms are completely updated, from the walls to the floors. No carpet..I love that. The fact that they have no carpet is the main reason I love it. I travel with a service animal. They are animal and or pet friendly. There is a nice pool, and a clean laundry room on the second floor. My recommendation is if your looking for a safe, clean place, and wanna save a couple of extra bucks. Motel 6 in Lewisville is a great place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r161940044-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>161940044</t>
+  </si>
+  <si>
+    <t>05/26/2013</t>
+  </si>
+  <si>
+    <t>Good room for the price.</t>
+  </si>
+  <si>
+    <t>Good rooms for the price. We were going to six flags so it was close enough but without the high price. Just wish the beds were a little softer and bigger. And breakfast would have been nice but you get what you pay for.</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r130705271-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -609,9 +831,6 @@
     <t>May 2012</t>
   </si>
   <si>
-    <t>TexasScopist</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r125946274-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -633,9 +852,6 @@
     <t>We stayed there last night -- HORRIBLE!!!  We actually complained this morning and got a refund in full.  I still have to talk to the GM Tim Stringer , as well as his boss!  Doors slammed ALL night long.  Could hear every single word that our neighbors said standing in the hallway outside our door, loud and clear.  Heard every person that walked past our room or walked down the hall above our room, I think.  Like the other reviewers, there is definitely NOTHING to the walls, absolutely no soundproofing at all.  Housekeeping had the nerve to knock on our door at 10:00 a.m. this morning to see if we'd left even though check-out is noon!  We had no water pressure in our sink, although the shower was fine.  We've stayed in hundreds of hotels across this country and there's only been one instance of a worse hotel experience that we've had.  NEVER EVER STAY HERE!More</t>
   </si>
   <si>
-    <t>rob56664</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r117517337-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -657,7 +873,43 @@
     <t>The first room we were in was too warm, and also by the back door.  The door slammed all night keeping us awake for much of the night.  The second room was completely without a working air conditioner.  The entire motel was dirty from the doors, to the graffiti on the elivator.  The third room, was cool and quiet.  At least it was quiet until the morning of checkout when one of the other guests apparently had a violent domestic quarrel.  I called the desk and asked for the police to be called.  I did not see the police, but did hear the phone in the room with the arguers ring immediately after my call to the desk.  This place is horrible.  I would not suggest this dump to homeless people.More</t>
   </si>
   <si>
-    <t>anothertiredtourist</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r62509449-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>62509449</t>
+  </si>
+  <si>
+    <t>04/26/2010</t>
+  </si>
+  <si>
+    <t>Thin walls.</t>
+  </si>
+  <si>
+    <t>I definitely agree with the other reviewer.  The walls we SO thin.  No exaggeration.  You can hear absolutely everything that goes on in the halls.  And you can hear what's going on in the room next to you.  So, be careful what you say! Haha.. But really, it was just bad.  The couple in the room next to us had a normal conversation, so I could kinda sleep, but then they started fighting, and I couldn't sleep at all.  Our room also smelled like smoke, even though we asked for non-smoking.  And the remodeling of the Motel 6's is nice, but I guess they decided they don't need clocks or shampoo anymore.  I do want to say that the man working at the front desk was super nice, and we appreciate his help.  There's not much that the staff can do about thin walls, though.  Please listen to the reviews if you're thinking of staying here.  You might be lucky and be there when only quiet people are there, but it's likely that that won't happen, and you won't be able to sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>I definitely agree with the other reviewer.  The walls we SO thin.  No exaggeration.  You can hear absolutely everything that goes on in the halls.  And you can hear what's going on in the room next to you.  So, be careful what you say! Haha.. But really, it was just bad.  The couple in the room next to us had a normal conversation, so I could kinda sleep, but then they started fighting, and I couldn't sleep at all.  Our room also smelled like smoke, even though we asked for non-smoking.  And the remodeling of the Motel 6's is nice, but I guess they decided they don't need clocks or shampoo anymore.  I do want to say that the man working at the front desk was super nice, and we appreciate his help.  There's not much that the staff can do about thin walls, though.  Please listen to the reviews if you're thinking of staying here.  You might be lucky and be there when only quiet people are there, but it's likely that that won't happen, and you won't be able to sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r56313206-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>56313206</t>
+  </si>
+  <si>
+    <t>02/17/2010</t>
+  </si>
+  <si>
+    <t>Paper Thin Walls</t>
+  </si>
+  <si>
+    <t>The walls are so thin at this hotel that i could hear the conversation in the room next door while lying in bed as if i were in the room with them. Asked for nonsmoking room and had smoking smell in it. Could not sleep what so ever. Room had no shampoo or alarm clock.</t>
+  </si>
+  <si>
+    <t>January 2010</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d244372-r45104752-Motel_6_Dallas_Lewisville-Lewisville_Texas.html</t>
@@ -1180,47 +1432,43 @@
       <c r="A2" t="n">
         <v>34700</v>
       </c>
-      <c r="B2" t="n">
-        <v>169302</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1234,54 +1482,50 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>34700</v>
       </c>
-      <c r="B3" t="n">
-        <v>169303</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="L3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>58</v>
       </c>
-      <c r="K3" t="s">
+      <c r="O3" t="s">
         <v>59</v>
-      </c>
-      <c r="L3" t="s">
-        <v>60</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O3" t="s">
-        <v>62</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1293,60 +1537,56 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="X3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="Y3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>34700</v>
       </c>
-      <c r="B4" t="n">
-        <v>9190</v>
-      </c>
-      <c r="C4" t="s">
-        <v>66</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
         <v>67</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
         <v>68</v>
       </c>
-      <c r="J4" t="s">
-        <v>69</v>
-      </c>
-      <c r="K4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L4" t="s">
-        <v>71</v>
-      </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>52</v>
-      </c>
       <c r="O4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1357,61 +1597,53 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s">
-        <v>63</v>
-      </c>
-      <c r="X4" t="s">
-        <v>64</v>
-      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>34700</v>
       </c>
-      <c r="B5" t="n">
-        <v>169304</v>
-      </c>
-      <c r="C5" t="s">
-        <v>73</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" t="s">
+        <v>73</v>
+      </c>
+      <c r="L5" t="s">
         <v>74</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>75</v>
       </c>
-      <c r="J5" t="s">
-        <v>76</v>
-      </c>
-      <c r="K5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>79</v>
-      </c>
       <c r="O5" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1422,57 +1654,57 @@
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" t="s">
+        <v>77</v>
+      </c>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>34700</v>
       </c>
-      <c r="B6" t="n">
-        <v>169305</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>79</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" t="s">
         <v>81</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="K6" t="s">
         <v>82</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="L6" t="s">
         <v>83</v>
       </c>
-      <c r="J6" t="s">
-        <v>84</v>
-      </c>
-      <c r="K6" t="s">
-        <v>85</v>
-      </c>
-      <c r="L6" t="s">
-        <v>86</v>
-      </c>
       <c r="M6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N6" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1483,179 +1715,179 @@
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s"/>
-      <c r="X6" t="s"/>
+      <c r="W6" t="s">
+        <v>76</v>
+      </c>
+      <c r="X6" t="s">
+        <v>77</v>
+      </c>
       <c r="Y6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>34700</v>
       </c>
-      <c r="B7" t="n">
-        <v>6383</v>
-      </c>
-      <c r="C7" t="s">
-        <v>89</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>89</v>
+      </c>
+      <c r="O7" t="s">
         <v>90</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>91</v>
-      </c>
-      <c r="J7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M7" t="n">
-        <v>4</v>
-      </c>
-      <c r="N7" t="s"/>
-      <c r="O7" t="s"/>
       <c r="P7" t="s"/>
-      <c r="Q7" t="s"/>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s"/>
-      <c r="X7" t="s"/>
+      <c r="W7" t="s">
+        <v>76</v>
+      </c>
+      <c r="X7" t="s">
+        <v>77</v>
+      </c>
       <c r="Y7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>34700</v>
       </c>
-      <c r="B8" t="n">
-        <v>169306</v>
-      </c>
-      <c r="C8" t="s">
-        <v>95</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
         <v>96</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
-        <v>97</v>
-      </c>
-      <c r="J8" t="s">
-        <v>98</v>
-      </c>
-      <c r="K8" t="s">
-        <v>99</v>
-      </c>
-      <c r="L8" t="s">
-        <v>100</v>
-      </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="n">
-        <v>2</v>
-      </c>
+      <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>1</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>34700</v>
       </c>
-      <c r="B9" t="n">
-        <v>1401</v>
-      </c>
-      <c r="C9" t="s">
-        <v>102</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="O9" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -1666,126 +1898,104 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>110</v>
-      </c>
-      <c r="X9" t="s">
-        <v>111</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>34700</v>
       </c>
-      <c r="B10" t="n">
-        <v>169307</v>
-      </c>
-      <c r="C10" t="s">
-        <v>113</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="J10" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="K10" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="M10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>1</v>
-      </c>
-      <c r="S10" t="n">
-        <v>1</v>
-      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>1</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s">
-        <v>120</v>
-      </c>
-      <c r="X10" t="s">
-        <v>121</v>
-      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>34700</v>
       </c>
-      <c r="B11" t="n">
-        <v>92354</v>
-      </c>
-      <c r="C11" t="s">
-        <v>123</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="J11" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="K11" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="L11" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s"/>
       <c r="O11" t="s"/>
@@ -1801,121 +2011,107 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>34700</v>
       </c>
-      <c r="B12" t="n">
-        <v>169308</v>
-      </c>
-      <c r="C12" t="s">
-        <v>129</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="J12" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="K12" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="L12" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="M12" t="n">
         <v>1</v>
       </c>
       <c r="N12" t="s">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="O12" t="s">
-        <v>136</v>
-      </c>
-      <c r="P12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>1</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>1</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>34700</v>
       </c>
-      <c r="B13" t="n">
-        <v>169309</v>
-      </c>
-      <c r="C13" t="s">
-        <v>137</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>138</v>
+        <v>123</v>
       </c>
       <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="J13" t="s">
-        <v>140</v>
+        <v>125</v>
       </c>
       <c r="K13" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="L13" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="O13" t="s">
-        <v>109</v>
+        <v>128</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -1929,66 +2125,60 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>34700</v>
       </c>
-      <c r="B14" t="n">
-        <v>101573</v>
-      </c>
-      <c r="C14" t="s">
-        <v>145</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="J14" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
       <c r="K14" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="O14" t="s">
-        <v>62</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="s"/>
-      <c r="S14" t="n">
-        <v>3</v>
-      </c>
+      <c r="R14" t="n">
+        <v>2</v>
+      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1996,415 +2186,371 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>152</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>34700</v>
       </c>
-      <c r="B15" t="n">
-        <v>2435</v>
-      </c>
-      <c r="C15" t="s">
-        <v>153</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="J15" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="K15" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="L15" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="O15" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="P15" t="s"/>
-      <c r="Q15" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q15" t="s"/>
       <c r="R15" t="s"/>
-      <c r="S15" t="n">
-        <v>4</v>
-      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
-      <c r="U15" t="n">
-        <v>3</v>
-      </c>
+      <c r="U15" t="s"/>
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>140</v>
+      </c>
+      <c r="X15" t="s">
+        <v>141</v>
+      </c>
       <c r="Y15" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>34700</v>
       </c>
-      <c r="B16" t="n">
-        <v>28363</v>
-      </c>
-      <c r="C16" t="s">
-        <v>161</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="J16" t="s">
-        <v>164</v>
+        <v>145</v>
       </c>
       <c r="K16" t="s">
-        <v>165</v>
+        <v>146</v>
       </c>
       <c r="L16" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>167</v>
+        <v>148</v>
       </c>
       <c r="O16" t="s">
-        <v>136</v>
+        <v>59</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
+      <c r="R16" t="n">
+        <v>1</v>
+      </c>
       <c r="S16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>149</v>
+      </c>
+      <c r="X16" t="s">
+        <v>150</v>
+      </c>
       <c r="Y16" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>34700</v>
       </c>
-      <c r="B17" t="n">
-        <v>38905</v>
-      </c>
-      <c r="C17" t="s">
-        <v>168</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
       <c r="I17" t="s">
-        <v>170</v>
+        <v>153</v>
       </c>
       <c r="J17" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
       <c r="K17" t="s">
-        <v>172</v>
+        <v>155</v>
       </c>
       <c r="L17" t="s">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>157</v>
+      </c>
+      <c r="O17" t="s">
+        <v>90</v>
+      </c>
+      <c r="P17" t="n">
         <v>3</v>
       </c>
-      <c r="N17" t="s">
-        <v>174</v>
-      </c>
-      <c r="O17" t="s">
-        <v>53</v>
-      </c>
-      <c r="P17" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q17" t="n">
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="n">
         <v>3</v>
-      </c>
-      <c r="R17" t="n">
-        <v>4</v>
-      </c>
-      <c r="S17" t="n">
-        <v>4</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>158</v>
+      </c>
+      <c r="X17" t="s">
+        <v>159</v>
+      </c>
       <c r="Y17" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>34700</v>
       </c>
-      <c r="B18" t="n">
-        <v>169310</v>
-      </c>
-      <c r="C18" t="s">
-        <v>175</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
         <v>46</v>
       </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
       <c r="I18" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="J18" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="K18" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="L18" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N18" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="O18" t="s">
-        <v>136</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3</v>
-      </c>
-      <c r="R18" t="n">
-        <v>5</v>
-      </c>
-      <c r="S18" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
       <c r="T18" t="s"/>
-      <c r="U18" t="n">
-        <v>4</v>
-      </c>
+      <c r="U18" t="s"/>
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>167</v>
+      </c>
+      <c r="X18" t="s">
+        <v>168</v>
+      </c>
       <c r="Y18" t="s">
-        <v>180</v>
+        <v>169</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>34700</v>
       </c>
-      <c r="B19" t="n">
-        <v>169311</v>
-      </c>
-      <c r="C19" t="s">
-        <v>182</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
         <v>46</v>
       </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
       <c r="I19" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="J19" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="K19" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="L19" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="s">
-        <v>188</v>
-      </c>
-      <c r="O19" t="s">
-        <v>62</v>
-      </c>
-      <c r="P19" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>1</v>
-      </c>
-      <c r="R19" t="n">
-        <v>3</v>
-      </c>
-      <c r="S19" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
       <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>3</v>
-      </c>
+      <c r="U19" t="s"/>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>34700</v>
       </c>
-      <c r="B20" t="n">
-        <v>169312</v>
-      </c>
-      <c r="C20" t="s">
-        <v>190</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
         <v>46</v>
       </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
       <c r="I20" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="J20" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="K20" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="L20" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N20" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="O20" t="s">
-        <v>53</v>
+        <v>128</v>
       </c>
       <c r="P20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q20" t="n">
-        <v>3</v>
-      </c>
-      <c r="R20" t="n">
-        <v>5</v>
-      </c>
-      <c r="S20" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2412,133 +2558,115 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>34700</v>
       </c>
-      <c r="B21" t="n">
-        <v>169313</v>
-      </c>
-      <c r="C21" t="s">
-        <v>197</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
         <v>46</v>
       </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
       <c r="I21" t="s">
-        <v>199</v>
+        <v>182</v>
       </c>
       <c r="J21" t="s">
-        <v>200</v>
+        <v>183</v>
       </c>
       <c r="K21" t="s">
-        <v>201</v>
+        <v>184</v>
       </c>
       <c r="L21" t="s">
-        <v>202</v>
+        <v>185</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
       <c r="O21" t="s">
-        <v>136</v>
-      </c>
-      <c r="P21" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>1</v>
-      </c>
-      <c r="R21" t="n">
-        <v>3</v>
-      </c>
-      <c r="S21" t="n">
-        <v>3</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>3</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>204</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>34700</v>
       </c>
-      <c r="B22" t="n">
-        <v>148907</v>
-      </c>
-      <c r="C22" t="s">
-        <v>205</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
       <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
         <v>46</v>
       </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
       <c r="I22" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="J22" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="K22" t="s">
-        <v>209</v>
+        <v>191</v>
       </c>
       <c r="L22" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
-      <c r="N22" t="s">
-        <v>211</v>
-      </c>
-      <c r="O22" t="s">
-        <v>109</v>
-      </c>
+      <c r="N22" t="s"/>
+      <c r="O22" t="s"/>
       <c r="P22" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q22" t="s"/>
-      <c r="R22" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
       <c r="S22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
@@ -2547,60 +2675,56 @@
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>193</v>
+      </c>
+      <c r="X22" t="s">
+        <v>194</v>
+      </c>
       <c r="Y22" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>34700</v>
       </c>
-      <c r="B23" t="n">
-        <v>169314</v>
-      </c>
-      <c r="C23" t="s">
-        <v>213</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
         <v>46</v>
       </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
       <c r="I23" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="J23" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="K23" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="L23" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="M23" t="n">
-        <v>5</v>
-      </c>
-      <c r="N23" t="s">
-        <v>219</v>
-      </c>
-      <c r="O23" t="s">
-        <v>62</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
       <c r="P23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q23" t="n">
         <v>5</v>
@@ -2609,7 +2733,7 @@
         <v>5</v>
       </c>
       <c r="S23" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
@@ -2621,7 +2745,1055 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>34700</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>201</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>202</v>
+      </c>
+      <c r="J24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K24" t="s">
+        <v>204</v>
+      </c>
+      <c r="L24" t="s">
+        <v>205</v>
+      </c>
+      <c r="M24" t="n">
+        <v>3</v>
+      </c>
+      <c r="N24" t="s">
+        <v>206</v>
+      </c>
+      <c r="O24" t="s">
+        <v>52</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>3</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>34700</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>208</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>209</v>
+      </c>
+      <c r="J25" t="s">
+        <v>210</v>
+      </c>
+      <c r="K25" t="s">
+        <v>211</v>
+      </c>
+      <c r="L25" t="s">
+        <v>212</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>213</v>
+      </c>
+      <c r="O25" t="s">
+        <v>90</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>4</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>34700</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>215</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>216</v>
+      </c>
+      <c r="J26" t="s">
+        <v>217</v>
+      </c>
+      <c r="K26" t="s">
         <v>218</v>
+      </c>
+      <c r="L26" t="s">
+        <v>219</v>
+      </c>
+      <c r="M26" t="n">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>220</v>
+      </c>
+      <c r="O26" t="s">
+        <v>128</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>34700</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>221</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>222</v>
+      </c>
+      <c r="J27" t="s">
+        <v>223</v>
+      </c>
+      <c r="K27" t="s">
+        <v>224</v>
+      </c>
+      <c r="L27" t="s">
+        <v>225</v>
+      </c>
+      <c r="M27" t="n">
+        <v>3</v>
+      </c>
+      <c r="N27" t="s">
+        <v>226</v>
+      </c>
+      <c r="O27" t="s">
+        <v>128</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>4</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>4</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>34700</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>228</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>229</v>
+      </c>
+      <c r="J28" t="s">
+        <v>230</v>
+      </c>
+      <c r="K28" t="s">
+        <v>231</v>
+      </c>
+      <c r="L28" t="s">
+        <v>232</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>233</v>
+      </c>
+      <c r="O28" t="s">
+        <v>59</v>
+      </c>
+      <c r="P28" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="n">
+        <v>5</v>
+      </c>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>34700</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>234</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>235</v>
+      </c>
+      <c r="J29" t="s">
+        <v>236</v>
+      </c>
+      <c r="K29" t="s">
+        <v>237</v>
+      </c>
+      <c r="L29" t="s">
+        <v>238</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>239</v>
+      </c>
+      <c r="O29" t="s">
+        <v>59</v>
+      </c>
+      <c r="P29" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>34700</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>240</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>241</v>
+      </c>
+      <c r="J30" t="s">
+        <v>242</v>
+      </c>
+      <c r="K30" t="s">
+        <v>243</v>
+      </c>
+      <c r="L30" t="s">
+        <v>244</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>245</v>
+      </c>
+      <c r="O30" t="s">
+        <v>128</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>3</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>34700</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>246</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>247</v>
+      </c>
+      <c r="J31" t="s">
+        <v>248</v>
+      </c>
+      <c r="K31" t="s">
+        <v>249</v>
+      </c>
+      <c r="L31" t="s">
+        <v>250</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1</v>
+      </c>
+      <c r="N31" t="s">
+        <v>251</v>
+      </c>
+      <c r="O31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>1</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>3</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>34700</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>253</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>254</v>
+      </c>
+      <c r="J32" t="s">
+        <v>255</v>
+      </c>
+      <c r="K32" t="s">
+        <v>256</v>
+      </c>
+      <c r="L32" t="s">
+        <v>257</v>
+      </c>
+      <c r="M32" t="n">
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>258</v>
+      </c>
+      <c r="O32" t="s">
+        <v>90</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>5</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>34700</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>260</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>261</v>
+      </c>
+      <c r="J33" t="s">
+        <v>262</v>
+      </c>
+      <c r="K33" t="s">
+        <v>263</v>
+      </c>
+      <c r="L33" t="s">
+        <v>264</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s"/>
+      <c r="O33" t="s"/>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>4</v>
+      </c>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
+      <c r="S33" t="n">
+        <v>5</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>34700</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>265</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>266</v>
+      </c>
+      <c r="J34" t="s">
+        <v>267</v>
+      </c>
+      <c r="K34" t="s">
+        <v>268</v>
+      </c>
+      <c r="L34" t="s">
+        <v>269</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>270</v>
+      </c>
+      <c r="O34" t="s">
+        <v>59</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>3</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>34700</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>271</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>272</v>
+      </c>
+      <c r="J35" t="s">
+        <v>273</v>
+      </c>
+      <c r="K35" t="s">
+        <v>274</v>
+      </c>
+      <c r="L35" t="s">
+        <v>275</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="s">
+        <v>276</v>
+      </c>
+      <c r="O35" t="s">
+        <v>128</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>34700</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>278</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>279</v>
+      </c>
+      <c r="J36" t="s">
+        <v>280</v>
+      </c>
+      <c r="K36" t="s">
+        <v>281</v>
+      </c>
+      <c r="L36" t="s">
+        <v>282</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>283</v>
+      </c>
+      <c r="O36" t="s">
+        <v>90</v>
+      </c>
+      <c r="P36" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>1</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>34700</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>285</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>286</v>
+      </c>
+      <c r="J37" t="s">
+        <v>287</v>
+      </c>
+      <c r="K37" t="s">
+        <v>288</v>
+      </c>
+      <c r="L37" t="s">
+        <v>289</v>
+      </c>
+      <c r="M37" t="n">
+        <v>1</v>
+      </c>
+      <c r="N37" t="s">
+        <v>290</v>
+      </c>
+      <c r="O37" t="s">
+        <v>128</v>
+      </c>
+      <c r="P37" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5</v>
+      </c>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>34700</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>292</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>293</v>
+      </c>
+      <c r="J38" t="s">
+        <v>294</v>
+      </c>
+      <c r="K38" t="s">
+        <v>295</v>
+      </c>
+      <c r="L38" t="s">
+        <v>296</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="s">
+        <v>297</v>
+      </c>
+      <c r="O38" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1</v>
+      </c>
+      <c r="R38" t="n">
+        <v>3</v>
+      </c>
+      <c r="S38" t="n">
+        <v>1</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>1</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>34700</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>298</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>299</v>
+      </c>
+      <c r="J39" t="s">
+        <v>300</v>
+      </c>
+      <c r="K39" t="s">
+        <v>301</v>
+      </c>
+      <c r="L39" t="s">
+        <v>302</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>303</v>
+      </c>
+      <c r="O39" t="s">
+        <v>52</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
